--- a/Indices_Precios_2.xlsx
+++ b/Indices_Precios_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H874880\Documents\Comité Riesgos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H874880\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788786F2-54CA-4FD3-9F55-00176F143FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1C36F4-2238-48C0-AA2E-D32B5D0C46AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precios" sheetId="3" r:id="rId1"/>
@@ -70,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -84,6 +84,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -149,7 +150,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -172,6 +173,3073 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>precios!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NIKKEI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>precios!$D$2:$D$785</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="784"/>
+                <c:pt idx="0">
+                  <c:v>29642.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29683.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29685.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29100.380859000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28508.550781000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29188.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29020.630859000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29126.230468999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28991.890625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29053.970702999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28812.630859000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29331.37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29357.820313</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29518.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28608.59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28147.51</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27448.01</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28084.470702999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27824.830077999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28406.84</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28044.45</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28098.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28317.830077999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28364.61</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28553.980468999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28642.19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28549.01</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29149.410156000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28860.080077999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28814.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28946.140625</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29058.11</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28941.52</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29019.240234000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28963.560547000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28860.800781000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>28958.560547000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>28948.730468999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>29161.800781000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29441.300781000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29291.01</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>29018.330077999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28964.080077999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>28010.93</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28884.130859000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28874.890625</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28875.230468999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>29066.18</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>29048.02</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28812.61</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>28791.53</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>28707.040000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28783.279999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28598.19</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28643.210938</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>28366.95</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>28118.03</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>27940.419922000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>28569.019531000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>28718.240234000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28608.490234000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28279.089843999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>28003.080077999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27652.740234000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>27388.160156000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>27548</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27833.289063</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>27970.220702999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>27581.660156000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>27782.419922000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>27283.589843999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>27781.02</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>27641.830077999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>27584.080077999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27728.12</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>27820.04</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27888.15</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>28070.51</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>28015.02</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27977.15</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>27523.19</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>27424.47</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>27585.91</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27281.17</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27013.25</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27494.240000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>27732.1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>27724.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>27742.29</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>27641.14</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>27789.29</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28089.54</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>28451.02</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>28543.51</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>29128.11</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>29659.89</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>29916.14</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>30181.21</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>30008.19</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>30381.84</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>30447.37</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>30670.1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>30511.71</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>30323.34</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>30500.05</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>29839.71</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>29639.4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>30248.81</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>30240.06</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>30183.96</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>29544.29</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>29452.66</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>28771.07</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>28444.89</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>27822.12</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>27528.87</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>27678.21</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>28048.94</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>28498.2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>28230.61</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>28140.28</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>28550.93</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>29068.63</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>29025.46</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>29215.52</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>29255.55</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>28708.58</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>28804.85</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>28600.41</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>29106.01</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>29098.240000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>28820.09</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>28892.69</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>29647.08</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>29520.9</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>29794.37</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>29611.57</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>29507.05</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>29285.46</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>29106.78</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>29277.86</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>29609.97</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>29776.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>29808.12</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>29688.33</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>29598.66</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>29745.87</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>29774.11</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>29302.66</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>29499.279999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>28751.62</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>28283.919999999998</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>27821.759999999998</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>27935.62</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>27753.37</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>28029.57</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>27927.37</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>28455.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>28860.62</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>28725.47</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>28437.77</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>28640.49</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>28432.639999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>28459.72</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>29066.32</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>28545.68</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>27937.81</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>28517.59</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>28562.21</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>28798.37</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>28782.59</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>28676.46</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>29069.16</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>28906.880000000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>28791.71</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>29301.79</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>29332.16</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>28487.87</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>28478.560000000001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>28222.48</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>28765.66</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>28489.13</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>28124.28</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>28333.52</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>28257.25</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>27467.23</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>27772.93</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>27522.26</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>27588.37</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>27131.34</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>27011.33</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>26170.3</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>26717.34</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>27001.98</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>27078.48</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>27533.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>27241.31</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>27439.99</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>27248.87</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>27284.52</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>27579.87</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>27696.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>27079.59</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>26865.19</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>27460.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>27232.87</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>27122.07</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>26910.87</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>26449.61</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>25970.82</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>26476.5</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>26526.82</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>26844.720000000001</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>26393.03</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>26577.27</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>25985.47</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>25221.41</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>24790.95</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>24717.53</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>25690.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>25162.78</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>25307.85</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>25346.48</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>25762.01</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>26652.89</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>26827.43</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>27224.11</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>28040.16</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>28110.39</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>28149.84</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>27943.89</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>28252.42</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>28027.25</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>27821.43</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>27665.98</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>27736.47</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>27787.98</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>27350.3</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>26888.57</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>26985.8</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>26821.52</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>26334.98</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>26843.49</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>27172</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>27093.19</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>26799.71</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>26985.09</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>27217.85</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>27553.06</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>27105.26</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>26590.78</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>26700.11</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>26386.63</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>26847.9</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>26818.53</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>27003.56</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>26319.34</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>26167.1</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>26213.64</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>25748.720000000001</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>26427.65</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>26547.05</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>26659.75</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>26911.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>26402.84</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>26739.03</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>27001.52</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>26748.14</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>26677.8</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>26604.84</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>26781.68</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>27369.43</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>27279.8</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>27457.89</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>27413.88</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>27761.57</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>27915.89</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>27943.95</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>28234.29</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>28246.53</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>27824.29</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>26987.439999999999</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>26629.86</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>26326.16</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>26431.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>25963</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>25771.22</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>26246.31</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>26149.55</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>26171.25</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>26491.97</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>26871.27</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>27049.47</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>26804.6</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>26393.040000000001</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>25935.62</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>26153.81</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>26423.47</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>26107.65</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>26490.53</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>26517.19</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>26812.3</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>26336.66</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>26478.77</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>26643.39</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>26788.47</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>26961.68</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>27680.26</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>27803</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>27914.66</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>27699.25</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>27655.21</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>27715.75</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>27815.48</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>27801.64</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>27993.35</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>27594.73</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>27741.9</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>27932.2</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>28175.87</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>28249.24</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>27999.96</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>27819.33</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>28546.98</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>28871.78</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>28868.91</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>29222.77</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>28942.14</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>28930.33</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>28794.5</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>28452.75</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>28313.47</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>28479.01</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>28641.38</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>27878.959999999999</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>28195.58</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>28091.53</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>27661.47</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>27650.84</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>27619.61</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>27626.51</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>27430.3</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>28065.279999999999</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>28214.75</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>28542.11</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>28614.63</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>27818.62</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>27875.91</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>27567.65</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>27688.42</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>27313.13</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>27153.83</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>26431.55</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>26571.87</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>26173.98</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>26422.05</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>25937.21</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>26215.79</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>26992.21</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>27120.53</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>27311.3</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>27116.11</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>26401.25</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>26396.83</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>26237.42</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>27090.76</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>26775.79</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>27156.14</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>27257.38</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>27006.959999999999</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>26890.58</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>26974.9</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>27250.28</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>27431.84</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>27345.24</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>27105.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>27587.46</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>27678.92</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>27663.39</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>27199.74</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>27527.64</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>27872.11</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>27716.43</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>27446.1</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>28263.57</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>27963.47</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>27990.17</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>28028.3</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>27930.57</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>27899.77</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>27944.79</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>28115.74</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>28383.09</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>28283.03</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>28162.83</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>28027.84</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>27968.99</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>28226.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>27777.9</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>27820.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>27885.87</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>27686.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>27574.43</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>27901.01</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>27842.33</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>27954.85</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>28156.21</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>28051.7</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>27527.119999999999</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>27237.64</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>26568.03</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>26387.72</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>26507.87</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>26235.25</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>26405.87</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>26447.87</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>26340.5</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>26093.67</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>26094.5</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>25716.86</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>25820.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>25973.85</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>26175.56</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>26446</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>26449.82</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>26119.52</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>25822.32</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>26138.68</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>26791.119999999999</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>26405.23</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>26553.53</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>26906.04</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>27299.19</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>27395.01</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>27362.75</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>27382.560000000001</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>27433.4</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>27327.11</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>27346.880000000001</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>27402.05</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>27509.46</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>27693.65</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>27685.47</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>27606.46</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>27584.35</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>27670.98</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>27427.32</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>27602.77</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>27501.86</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>27696.44</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>27513.13</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>27531.94</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>27473.1</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>27104.32</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>27453.48</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>27423.96</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>27445.56</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>27516.53</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>27498.87</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>27927.47</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>28237.78</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>28309.16</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>28444.19</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>28623.15</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>28143.97</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>27832.959999999999</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>27222.04</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>27229.48</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>27010.61</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>27333.79</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>26945.67</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>27466.61</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>27419.61</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>27385.25</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>27476.87</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>27518.25</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>27883.78</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>27782.93</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>28041.48</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>28188.15</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>28287.42</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>27813.26</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>27472.63</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>27518.31</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>27633.66</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>27923.37</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>28082.7</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>28156.97</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>28493.47</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>28514.78</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>28658.83</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>28606.76</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>28657.57</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>28564.37</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>28593.52</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>28620.07</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>28416.47</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>28457.68</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>28856.44</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>28825</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>29015</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>29030</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>29515</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>29040</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>29230</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>29040</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>29126.27</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>29575</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>29870</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>29870</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>30530</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>30905</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>30855</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>31215</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>30680</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>30495</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>31100</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>31500</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>31145</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>30780</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>31400</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>31965</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>32100</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>32645</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>31885</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>31890</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>32355</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>32675</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>33018.648437999997</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>33502.421875</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>33485.488280999998</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>33706.078125</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>33370.421875</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>33388.910155999998</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>33575.140625</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>33264.878905999998</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>32781.539062999997</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>32698.810547000001</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>32538.330077999999</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>33193.988280999998</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>33234.140625</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>33189.039062999997</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>33753.328125</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>33422.519530999998</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>33338.699219000002</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>32773.019530999998</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>32388.419922000001</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>32189.730468999998</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>32203.570313</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>31943.929688</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>32419.330077999999</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>32391.259765999999</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>32493.890625</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>32896.03125</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>32490.519531000002</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>32304.25</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>32700.939452999999</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>32682.509765999999</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>32668.339843999998</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>32891.160155999998</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>32759.230468999998</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>33172.21875</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>33476.578125</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>32707.689452999999</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>32159.279297000001</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>32192.75</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>32254.560547000001</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>32377.289063</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>32204.330077999999</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>32473.650390999999</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>32059.910156000002</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>32238.890625</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>31766.8203125</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>31626</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>31450.759765625</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>31565.640625</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>31856.7109375</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>32010.259765625</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>32287.2109375</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>31624.279296875</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>32169.990234375</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>32226.970703125</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>32333.4609375</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>32619.33984375</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>32710.619140999999</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>33110</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>33125</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>33241.019530999998</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>32991.078125</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>32606.839843999998</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>32660</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>32795</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>32855</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>33365</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>33205</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>33533.089844000002</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>33550</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>33260</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>33242.589844000002</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>33023.78125</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>32571.029297000001</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>32402.410156000002</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>32655</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>32678.619140999999</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>32365</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>32371.900390999999</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>31872.519531000002</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>31857.619140999999</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>31585</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>30790</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>30710</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>31055</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>31305</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>31205</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>31800</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>31985</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>32282</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>31910</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>31990</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>32135</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>31610</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>31295</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>31045</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>30955</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>31220</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>31020</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>30615</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>30580</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>30610</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>31330</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>31875</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>32290</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>32715</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>32610</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>32495</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>32310</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>32477.53</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>32885</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>32780</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>33210</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>33385</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>33405</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>33530</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>33200</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>33770</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>33730</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>33740</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>33525</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>33290</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>33275</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>33540</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>33505</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>33455</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>33055</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>32950</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>33170</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>32200</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>33100</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>32965</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>32925</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>32965</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>32690</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>32810</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>33445</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>33080</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>33345</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>33360</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>33550</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>33525</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>33465</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>33365</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>33288.289062999997</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>33377.421875</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>33763.179687999997</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>34441.71875</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>35049.859375</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>35577.109375</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>35901.789062999997</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>35619.179687999997</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>35477.75</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>35466.171875</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>35963.269530999998</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>36546.949219000002</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>36517.570312999997</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>36226.480469000002</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>36236.46875</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>35751.070312999997</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>36026.941405999998</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>36065.859375</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>36286.710937999997</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>36011.460937999997</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>36158.019530999998</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>36354.160155999998</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>36160.660155999998</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>36119.921875</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>36863.28125</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>36897.421875</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>37963.96875</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>37703.320312999997</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>38157.941405999998</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>38487.238280999998</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>38470.378905999998</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>38363.609375</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>38262.160155999998</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>39098.679687999997</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>39233.710937999997</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>39239.519530999998</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>39208.03125</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>39166.191405999998</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>39910.820312999997</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>40109.230469000002</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>40097.628905999998</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>40090.78125</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>39598.710937999997</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>39688.941405999998</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>38820.488280999998</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>38797.511719000002</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>38695.96875</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>38807.378905999998</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>38707.640625</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>39740.441405999998</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>40003.601562999997</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>40815.660155999998</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>40888.429687999997</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>40414.121094000002</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>40398.03125</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>40762.730469000002</c:v>
+                </c:pt>
+                <c:pt idx="773" formatCode="General">
+                  <c:v>39803.08984375</c:v>
+                </c:pt>
+                <c:pt idx="774" formatCode="General">
+                  <c:v>39838.91015625</c:v>
+                </c:pt>
+                <c:pt idx="775" formatCode="General">
+                  <c:v>39451.8515625</c:v>
+                </c:pt>
+                <c:pt idx="776" formatCode="General">
+                  <c:v>39773.140625</c:v>
+                </c:pt>
+                <c:pt idx="777" formatCode="General">
+                  <c:v>38992.078125</c:v>
+                </c:pt>
+                <c:pt idx="778" formatCode="General">
+                  <c:v>39347.0390625</c:v>
+                </c:pt>
+                <c:pt idx="779" formatCode="General">
+                  <c:v>39773.12890625</c:v>
+                </c:pt>
+                <c:pt idx="780" formatCode="General">
+                  <c:v>39581.80859375</c:v>
+                </c:pt>
+                <c:pt idx="781" formatCode="General">
+                  <c:v>39442.62890625</c:v>
+                </c:pt>
+                <c:pt idx="782" formatCode="General">
+                  <c:v>39523.55078125</c:v>
+                </c:pt>
+                <c:pt idx="783" formatCode="General">
+                  <c:v>39232.80078125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB6B-44CB-8A33-A6DAB2652BB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="573469824"/>
+        <c:axId val="708974328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="573469824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708974328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="708974328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573469824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>92074</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>146049</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77513ABF-72E6-08B8-E406-942A1804051E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,11 +3529,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2CB971-95AD-4B95-9D84-310F660C4BAC}">
   <dimension ref="A1:L785"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A711" workbookViewId="0">
-      <selection activeCell="C773" sqref="C773"/>
+    <sheetView tabSelected="1" topLeftCell="A736" workbookViewId="0">
+      <selection activeCell="D736" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
@@ -21237,9 +24308,7 @@
       <c r="C588" s="4">
         <v>657.73</v>
       </c>
-      <c r="D588" s="4">
-        <v>0</v>
-      </c>
+      <c r="D588" s="4"/>
       <c r="E588" s="4">
         <v>9721.0300000000007</v>
       </c>
@@ -21921,9 +24990,7 @@
       <c r="C607" s="4">
         <v>652.76</v>
       </c>
-      <c r="D607" s="4">
-        <v>0</v>
-      </c>
+      <c r="D607" s="4"/>
       <c r="E607" s="4">
         <v>9603.4500000000007</v>
       </c>
@@ -28129,5 +31196,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>